--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sfrp1-Fzd2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Fzd2</t>
   </si>
   <si>
-    <t>ECs</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>55.4044130515662</v>
+        <v>0.217473</v>
       </c>
       <c r="H2">
-        <v>55.4044130515662</v>
+        <v>0.652419</v>
       </c>
       <c r="I2">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J2">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.175102371334286</v>
+        <v>0.2081856666666667</v>
       </c>
       <c r="N2">
-        <v>0.175102371334286</v>
+        <v>0.624557</v>
       </c>
       <c r="O2">
-        <v>0.01140144759325351</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="P2">
-        <v>0.01140144759325351</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="Q2">
-        <v>9.701444107713506</v>
+        <v>0.04527476148700001</v>
       </c>
       <c r="R2">
-        <v>9.701444107713506</v>
+        <v>0.407472853383</v>
       </c>
       <c r="S2">
-        <v>0.01129046335577279</v>
+        <v>4.859062070857762E-05</v>
       </c>
       <c r="T2">
-        <v>0.01129046335577279</v>
+        <v>4.85906207085776E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>55.4044130515662</v>
+        <v>0.217473</v>
       </c>
       <c r="H3">
-        <v>55.4044130515662</v>
+        <v>0.652419</v>
       </c>
       <c r="I3">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J3">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>13.3079343475794</v>
+        <v>13.42533133333333</v>
       </c>
       <c r="N3">
-        <v>13.3079343475794</v>
+        <v>40.275994</v>
       </c>
       <c r="O3">
-        <v>0.8665200527108755</v>
+        <v>0.8203304708596988</v>
       </c>
       <c r="P3">
-        <v>0.8665200527108755</v>
+        <v>0.8203304708596987</v>
       </c>
       <c r="Q3">
-        <v>737.3182914564143</v>
+        <v>2.919647081054</v>
       </c>
       <c r="R3">
-        <v>737.3182914564143</v>
+        <v>26.276823729486</v>
       </c>
       <c r="S3">
-        <v>0.8580851529733391</v>
+        <v>0.003133477886109591</v>
       </c>
       <c r="T3">
-        <v>0.8580851529733391</v>
+        <v>0.00313347788610959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>55.4044130515662</v>
+        <v>0.217473</v>
       </c>
       <c r="H4">
-        <v>55.4044130515662</v>
+        <v>0.652419</v>
       </c>
       <c r="I4">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J4">
-        <v>0.9902657766416967</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.87487024001476</v>
+        <v>0.04883999999999999</v>
       </c>
       <c r="N4">
-        <v>1.87487024001476</v>
+        <v>0.14652</v>
       </c>
       <c r="O4">
-        <v>0.1220784996958709</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="P4">
-        <v>0.1220784996958709</v>
+        <v>0.002984279434304292</v>
       </c>
       <c r="Q4">
-        <v>103.8760851958668</v>
+        <v>0.01062138132</v>
       </c>
       <c r="R4">
-        <v>103.8760851958668</v>
+        <v>0.09559243187999998</v>
       </c>
       <c r="S4">
-        <v>0.1208901603125847</v>
+        <v>1.139927620092448E-05</v>
       </c>
       <c r="T4">
-        <v>0.1208901603125847</v>
+        <v>1.139927620092448E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.544620388183706</v>
+        <v>0.217473</v>
       </c>
       <c r="H5">
-        <v>0.544620388183706</v>
+        <v>0.652419</v>
       </c>
       <c r="I5">
-        <v>0.009734223358303299</v>
+        <v>0.003819775075312922</v>
       </c>
       <c r="J5">
-        <v>0.009734223358303299</v>
+        <v>0.003819775075312921</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.175102371334286</v>
+        <v>2.683402666666666</v>
       </c>
       <c r="N5">
-        <v>0.175102371334286</v>
+        <v>8.050208</v>
       </c>
       <c r="O5">
-        <v>0.01140144759325351</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="P5">
-        <v>0.01140144759325351</v>
+        <v>0.1639644429174985</v>
       </c>
       <c r="Q5">
-        <v>0.09536432144796626</v>
+        <v>0.5835676281279999</v>
       </c>
       <c r="R5">
-        <v>0.09536432144796626</v>
+        <v>5.252108653152</v>
       </c>
       <c r="S5">
-        <v>0.0001109842374807192</v>
+        <v>0.0006263072922938293</v>
       </c>
       <c r="T5">
-        <v>0.0001109842374807192</v>
+        <v>0.0006263072922938292</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.544620388183706</v>
+        <v>55.43187966666667</v>
       </c>
       <c r="H6">
-        <v>0.544620388183706</v>
+        <v>166.295639</v>
       </c>
       <c r="I6">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548445</v>
       </c>
       <c r="J6">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548444</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.3079343475794</v>
+        <v>0.2081856666666667</v>
       </c>
       <c r="N6">
-        <v>13.3079343475794</v>
+        <v>0.624557</v>
       </c>
       <c r="O6">
-        <v>0.8665200527108755</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="P6">
-        <v>0.8665200527108755</v>
+        <v>0.0127208067884984</v>
       </c>
       <c r="Q6">
-        <v>7.247772370301966</v>
+        <v>11.54012282299145</v>
       </c>
       <c r="R6">
-        <v>7.247772370301966</v>
+        <v>103.861105406923</v>
       </c>
       <c r="S6">
-        <v>0.00843489973753641</v>
+        <v>0.01238530502658498</v>
       </c>
       <c r="T6">
-        <v>0.00843489973753641</v>
+        <v>0.01238530502658498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.544620388183706</v>
+        <v>55.43187966666667</v>
       </c>
       <c r="H7">
-        <v>0.544620388183706</v>
+        <v>166.295639</v>
       </c>
       <c r="I7">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548445</v>
       </c>
       <c r="J7">
-        <v>0.009734223358303299</v>
+        <v>0.9736257481548444</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87487024001476</v>
+        <v>13.42533133333333</v>
       </c>
       <c r="N7">
-        <v>1.87487024001476</v>
+        <v>40.275994</v>
       </c>
       <c r="O7">
-        <v>0.1220784996958709</v>
+        <v>0.8203304708596988</v>
       </c>
       <c r="P7">
-        <v>0.1220784996958709</v>
+        <v>0.8203304708596987</v>
       </c>
       <c r="Q7">
-        <v>1.021092557910917</v>
+        <v>744.1913509544628</v>
       </c>
       <c r="R7">
-        <v>1.021092557910917</v>
+        <v>6697.722158590165</v>
       </c>
       <c r="S7">
-        <v>0.001188339383286169</v>
+        <v>0.79869486842499</v>
       </c>
       <c r="T7">
-        <v>0.001188339383286169</v>
+        <v>0.7986948684249899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>55.43187966666667</v>
+      </c>
+      <c r="H8">
+        <v>166.295639</v>
+      </c>
+      <c r="I8">
+        <v>0.9736257481548445</v>
+      </c>
+      <c r="J8">
+        <v>0.9736257481548444</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.04883999999999999</v>
+      </c>
+      <c r="N8">
+        <v>0.14652</v>
+      </c>
+      <c r="O8">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="P8">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="Q8">
+        <v>2.70729300292</v>
+      </c>
+      <c r="R8">
+        <v>24.36563702628</v>
+      </c>
+      <c r="S8">
+        <v>0.002905571296927632</v>
+      </c>
+      <c r="T8">
+        <v>0.002905571296927632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>55.43187966666667</v>
+      </c>
+      <c r="H9">
+        <v>166.295639</v>
+      </c>
+      <c r="I9">
+        <v>0.9736257481548445</v>
+      </c>
+      <c r="J9">
+        <v>0.9736257481548444</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.683402666666666</v>
+      </c>
+      <c r="N9">
+        <v>8.050208</v>
+      </c>
+      <c r="O9">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="P9">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="Q9">
+        <v>148.7460537158791</v>
+      </c>
+      <c r="R9">
+        <v>1338.714483442912</v>
+      </c>
+      <c r="S9">
+        <v>0.1596400034063418</v>
+      </c>
+      <c r="T9">
+        <v>0.1596400034063418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H10">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I10">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J10">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.2081856666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.624557</v>
+      </c>
+      <c r="O10">
+        <v>0.0127208067884984</v>
+      </c>
+      <c r="P10">
+        <v>0.0127208067884984</v>
+      </c>
+      <c r="Q10">
+        <v>0.2673321167045556</v>
+      </c>
+      <c r="R10">
+        <v>2.405989050341001</v>
+      </c>
+      <c r="S10">
+        <v>0.0002869111412048435</v>
+      </c>
+      <c r="T10">
+        <v>0.0002869111412048434</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H11">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J11">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>13.42533133333333</v>
+      </c>
+      <c r="N11">
+        <v>40.275994</v>
+      </c>
+      <c r="O11">
+        <v>0.8203304708596988</v>
+      </c>
+      <c r="P11">
+        <v>0.8203304708596987</v>
+      </c>
+      <c r="Q11">
+        <v>17.23952614156911</v>
+      </c>
+      <c r="R11">
+        <v>155.155735274122</v>
+      </c>
+      <c r="S11">
+        <v>0.01850212454859913</v>
+      </c>
+      <c r="T11">
+        <v>0.01850212454859913</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H12">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I12">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J12">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.04883999999999999</v>
+      </c>
+      <c r="N12">
+        <v>0.14652</v>
+      </c>
+      <c r="O12">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="P12">
+        <v>0.002984279434304292</v>
+      </c>
+      <c r="Q12">
+        <v>0.06271565564000001</v>
+      </c>
+      <c r="R12">
+        <v>0.56444090076</v>
+      </c>
+      <c r="S12">
+        <v>6.730886117573522E-05</v>
+      </c>
+      <c r="T12">
+        <v>6.73088611757352E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.284104333333334</v>
+      </c>
+      <c r="H13">
+        <v>3.852313000000001</v>
+      </c>
+      <c r="I13">
+        <v>0.02255447676984262</v>
+      </c>
+      <c r="J13">
+        <v>0.02255447676984261</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>2.683402666666666</v>
+      </c>
+      <c r="N13">
+        <v>8.050208</v>
+      </c>
+      <c r="O13">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="P13">
+        <v>0.1639644429174985</v>
+      </c>
+      <c r="Q13">
+        <v>3.445768992344889</v>
+      </c>
+      <c r="R13">
+        <v>31.011920931104</v>
+      </c>
+      <c r="S13">
+        <v>0.003698132218862907</v>
+      </c>
+      <c r="T13">
+        <v>0.003698132218862906</v>
       </c>
     </row>
   </sheetData>
